--- a/Proyectos Evaluados/LaPunta/Antecedentes PF - La Punta_V1.xlsx
+++ b/Proyectos Evaluados/LaPunta/Antecedentes PF - La Punta_V1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayal\Desktop\ejecucion-modelos\Proyectos Evaluados\LaPunta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E8417-01E0-47B2-9A29-DB34AB9998CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684EE08-073A-42CB-99FF-0CF4477378DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Antecedentes PF" sheetId="1" r:id="rId1"/>
     <sheet name="Resultados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1131,7 +1131,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="11">
@@ -1207,11 +1207,21 @@
       <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3.32</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>

--- a/Proyectos Evaluados/LaPunta/Antecedentes PF - La Punta_V1.xlsx
+++ b/Proyectos Evaluados/LaPunta/Antecedentes PF - La Punta_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayal\Desktop\ejecucion-modelos\Proyectos Evaluados\LaPunta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684EE08-073A-42CB-99FF-0CF4477378DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF627792-A7F5-4E74-8177-805373780084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Antecedentes PF" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Costo ICC o SE Elevadora [MUSD]</t>
   </si>
   <si>
-    <t>±3</t>
-  </si>
-  <si>
     <t>Escenario</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>BESS 20 MW, 100 MWh (5 hrs)</t>
+  </si>
+  <si>
+    <t>±1</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,6 +449,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25429B-4721-41C5-85C0-9A506688E06E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -841,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -850,10 +856,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -946,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,8 +1136,8 @@
   </sheetPr>
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,47 +1151,47 @@
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="24">
         <v>0.1038</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="24">
         <v>0.109</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="23">
         <v>3.14</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="23">
         <v>7</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="23">
         <v>61.1</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="11">
         <v>0.1019</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
         <v>9.1200000000000003E-2</v>
